--- a/medicine/Psychotrope/Boutari/Boutari.xlsx
+++ b/medicine/Psychotrope/Boutari/Boutari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boutari (grec moderne : Μπουτάρη, plus précisément Μπουτάρη Οινοποιητική Α.Ε.) est l'une des plus anciennes entreprises viticoles grecques. Fondée en 1879 à Naoussa en Macédoine, elle a son siège social à Thessalonique. Elle a été essentielle dans le développement et la diffusion de l'appellation Naoussa (de), à partir du raisin xinomavro (en). En 2004, elle produisait 150 000 hl sur 550 ha.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boutari fut fondée par Yannis Boutaris en 1879 à Naoussa. L'entreprise s'installa définitivement à Thessalonique en 1906. Elle reste une entreprise familiale : dans les années 2000, Marina Boutaris est la 5e génération parmi les dirigeants de l'entreprise[1].
-À la fin des années 1960, les héritiers Konstantinos Boutaris et Yannis Jr Boutaris se partagèrent la gestion de l'entreprise : le premier s'occupa du marketing et le second de la production. En 1987, Boutari entra à la bourse d'Athènes. En 1991, elle acheta Cambas, une autre entreprise viticole familiale, d'Attique. À la fin des années 1990, les deux frères se séparèrent. Konstantinos resta à la tête de Boutari et Yannis Jr créa Kir-Yanni en s'appuyant sur le domaine de Yianakohori à Naoussa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boutari fut fondée par Yannis Boutaris en 1879 à Naoussa. L'entreprise s'installa définitivement à Thessalonique en 1906. Elle reste une entreprise familiale : dans les années 2000, Marina Boutaris est la 5e génération parmi les dirigeants de l'entreprise.
+À la fin des années 1960, les héritiers Konstantinos Boutaris et Yannis Jr Boutaris se partagèrent la gestion de l'entreprise : le premier s'occupa du marketing et le second de la production. En 1987, Boutari entra à la bourse d'Athènes. En 1991, elle acheta Cambas, une autre entreprise viticole familiale, d'Attique. À la fin des années 1990, les deux frères se séparèrent. Konstantinos resta à la tête de Boutari et Yannis Jr créa Kir-Yanni en s'appuyant sur le domaine de Yianakohori à Naoussa.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Productions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise possède diverses exploitations : en Macédoine (Naoussa), en Crète, sur Santorin[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise possède diverses exploitations : en Macédoine (Naoussa), en Crète, sur Santorin.
 </t>
         </is>
       </c>
